--- a/results/sa_results.xlsx
+++ b/results/sa_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwspicer/classes/masters-project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A959A208-9478-A84E-B3FA-41F7FDB64F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06811686-BF75-EB47-9AA4-D055F4E0A907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="22400" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,7 +1410,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,8 +1498,8 @@
       <c r="D5" s="3">
         <v>0.99723333985109297</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.86845645843611197</v>
+      <c r="E5">
+        <v>1.3400455445346799</v>
       </c>
       <c r="F5" s="4">
         <v>0.97808472000000002</v>
@@ -1518,8 +1518,8 @@
       <c r="D6" s="3">
         <v>0.99630804953324203</v>
       </c>
-      <c r="E6" s="3">
-        <v>1.26851228275469</v>
+      <c r="E6">
+        <v>2.0362520016618801</v>
       </c>
       <c r="F6" s="4">
         <v>0.94809314</v>
@@ -1538,8 +1538,8 @@
       <c r="D7" s="3">
         <v>0.99724058111815495</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.83993299006933198</v>
+      <c r="E7">
+        <v>1.29657609973606</v>
       </c>
       <c r="F7" s="4">
         <v>0.97968473</v>
